--- a/biology/Zoologie/Épagneul_des_Alpes/Épagneul_des_Alpes.xlsx
+++ b/biology/Zoologie/Épagneul_des_Alpes/Épagneul_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pagneul_des_Alpes</t>
+          <t>Épagneul_des_Alpes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'épagneul des Alpes est une race de chien éteinte, originaire de Suisse. Il a été utilisé dans les sauvetages de montagne, lors des tempêtes de neige. C'était un grand chien au poil épais et bouclé. Il est le prédécesseur du Saint-Bernard[1] et de l'épagneul Clumber .
+L'épagneul des Alpes est une race de chien éteinte, originaire de Suisse. Il a été utilisé dans les sauvetages de montagne, lors des tempêtes de neige. C'était un grand chien au poil épais et bouclé. Il est le prédécesseur du Saint-Bernard et de l'épagneul Clumber .
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pagneul_des_Alpes</t>
+          <t>Épagneul_des_Alpes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 1800 et 1814, un chien nommé Barry[2] a vécu comme chien de sauvetage à l'hospice du Grand-Saint-Bernard. Il a été assez célèbre à l'époque pour que son corps soit conservé au Musée d'histoire naturelle de Berne. Cependant lors de la conservation, le taxidermiste et le directeur du Musée sont convenus de modifier le corps vers ce qu'ils croyaient être un bon exemple de la race pendant cette période.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1800 et 1814, un chien nommé Barry a vécu comme chien de sauvetage à l'hospice du Grand-Saint-Bernard. Il a été assez célèbre à l'époque pour que son corps soit conservé au Musée d'histoire naturelle de Berne. Cependant lors de la conservation, le taxidermiste et le directeur du Musée sont convenus de modifier le corps vers ce qu'ils croyaient être un bon exemple de la race pendant cette période.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pagneul_des_Alpes</t>
+          <t>Épagneul_des_Alpes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Musée d'histoire naturelle de Berne, Barry
